--- a/scratch/test_files/param_sheets/tiny_chipmen_test.xlsx
+++ b/scratch/test_files/param_sheets/tiny_chipmen_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerst\OneDrive\home\CWLab\scratch\test_files\param_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerst\OneDrive\home_dell\CWLab\scratch\test_files\param_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5656F9FE-2803-42EC-BE3D-71A35FAB03B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6AFC049D-C6C1-4FF5-AB9F-4EB4BF96F00A}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{5656F9FE-2803-42EC-BE3D-71A35FAB03B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{519A884F-E47B-467F-A512-039C0BCEA19B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="2928" windowWidth="16584" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global single values" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>adapter2</t>
   </si>
   <si>
-    <t># CWL: wf_chipmentation_packed.cwl| type: config</t>
-  </si>
-  <si>
     <t>parameter_name</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>ref_genome.fa</t>
+  </si>
+  <si>
+    <t># CWL: wf_chipmen_packed.cwl| type: config</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -550,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -590,30 +590,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -625,63 +625,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -689,19 +691,19 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -709,19 +711,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -729,19 +731,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -749,19 +751,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -769,19 +771,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -789,19 +791,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -809,19 +811,19 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -829,22 +831,22 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -852,19 +854,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
